--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\idea05\crm\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\20200707\crm\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F85A72C-693B-4390-9CCC-A0E8CAD349A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5ED4B2E-2EA8-403C-AEFB-3F856ED4004A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1092" yWindow="4620" windowWidth="22224" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WriterDataTest" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>电话</t>
   </si>
   <si>
-    <t>地址</t>
-  </si>
-  <si>
     <t>部门</t>
   </si>
   <si>
@@ -44,6 +41,10 @@
   </si>
   <si>
     <t>入职日期</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -412,7 +413,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -435,16 +436,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
